--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6214,15 +6214,90 @@
         <v>454.58</v>
       </c>
       <c r="D231" t="n">
-        <v>455.27</v>
+        <v>458.92</v>
       </c>
       <c r="E231" t="n">
         <v>442.96</v>
       </c>
       <c r="F231" t="n">
-        <v>452.58</v>
+        <v>451.56</v>
       </c>
       <c r="G231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKZT</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>444.76</v>
+      </c>
+      <c r="D232" t="n">
+        <v>452.98</v>
+      </c>
+      <c r="E232" t="n">
+        <v>440.61</v>
+      </c>
+      <c r="F232" t="n">
+        <v>446.11</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKZT</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>446.11</v>
+      </c>
+      <c r="D233" t="n">
+        <v>454.98</v>
+      </c>
+      <c r="E233" t="n">
+        <v>443.36</v>
+      </c>
+      <c r="F233" t="n">
+        <v>450.31</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKZT</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>450.31</v>
+      </c>
+      <c r="D234" t="n">
+        <v>450.31</v>
+      </c>
+      <c r="E234" t="n">
+        <v>442.21</v>
+      </c>
+      <c r="F234" t="n">
+        <v>445.06</v>
+      </c>
+      <c r="G234" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
@@ -6289,13 +6289,13 @@
         <v>450.31</v>
       </c>
       <c r="D234" t="n">
-        <v>450.31</v>
+        <v>452.53</v>
       </c>
       <c r="E234" t="n">
-        <v>442.21</v>
+        <v>438.98</v>
       </c>
       <c r="F234" t="n">
-        <v>445.06</v>
+        <v>446.5</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -6295,9 +6295,34 @@
         <v>438.98</v>
       </c>
       <c r="F234" t="n">
-        <v>446.5</v>
+        <v>444.06</v>
       </c>
       <c r="G234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKZT</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>444.06</v>
+      </c>
+      <c r="D235" t="n">
+        <v>446</v>
+      </c>
+      <c r="E235" t="n">
+        <v>441.48</v>
+      </c>
+      <c r="F235" t="n">
+        <v>444.86</v>
+      </c>
+      <c r="G235" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         <v>444.06</v>
       </c>
       <c r="D235" t="n">
-        <v>446</v>
+        <v>466.82</v>
       </c>
       <c r="E235" t="n">
         <v>441.48</v>
       </c>
       <c r="F235" t="n">
-        <v>444.86</v>
+        <v>458.68</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6320,9 +6320,84 @@
         <v>441.48</v>
       </c>
       <c r="F235" t="n">
-        <v>458.68</v>
+        <v>457.82</v>
       </c>
       <c r="G235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKZT</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>457.82</v>
+      </c>
+      <c r="D236" t="n">
+        <v>485.93</v>
+      </c>
+      <c r="E236" t="n">
+        <v>454.52</v>
+      </c>
+      <c r="F236" t="n">
+        <v>477.37</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKZT</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>477.37</v>
+      </c>
+      <c r="D237" t="n">
+        <v>480.77</v>
+      </c>
+      <c r="E237" t="n">
+        <v>467.91</v>
+      </c>
+      <c r="F237" t="n">
+        <v>468.27</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKZT</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>468.27</v>
+      </c>
+      <c r="D238" t="n">
+        <v>470.91</v>
+      </c>
+      <c r="E238" t="n">
+        <v>461.68</v>
+      </c>
+      <c r="F238" t="n">
+        <v>464.87</v>
+      </c>
+      <c r="G238" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
@@ -6392,10 +6392,10 @@
         <v>470.91</v>
       </c>
       <c r="E238" t="n">
-        <v>461.68</v>
+        <v>460.53</v>
       </c>
       <c r="F238" t="n">
-        <v>464.87</v>
+        <v>461.22</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kazakhstan_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5881,6 +5881,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239">
+        <v>457.08</v>
+      </c>
+      <c r="D239">
+        <v>462.22</v>
+      </c>
+      <c r="E239">
+        <v>457.08</v>
+      </c>
+      <c r="F239">
+        <v>460.98</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
